--- a/Data.xlsx
+++ b/Data.xlsx
@@ -764,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA200"/>
+  <dimension ref="B1:AC200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P70" workbookViewId="0">
-      <selection activeCell="AD96" sqref="AD96"/>
+    <sheetView tabSelected="1" topLeftCell="P193" workbookViewId="0">
+      <selection activeCell="X199" sqref="X199:X200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1432,7 +1432,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:27">
+    <row r="67" spans="2:29">
       <c r="B67">
         <v>0.98699999999999999</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="68" spans="2:27">
+    <row r="68" spans="2:29">
       <c r="B68">
         <v>0.88100000000000001</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="71" spans="2:27">
+    <row r="71" spans="2:29">
       <c r="B71">
         <v>0.98899999999999999</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0.96299999999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:27">
+    <row r="72" spans="2:29">
       <c r="B72">
         <v>0.88600000000000001</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="75" spans="2:27">
+    <row r="75" spans="2:29">
       <c r="B75">
         <v>0.99099999999999999</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="76" spans="2:27">
+    <row r="76" spans="2:29">
       <c r="B76">
         <v>0.89300000000000002</v>
       </c>
@@ -1552,44 +1552,84 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="79" spans="2:27">
+    <row r="79" spans="2:29">
       <c r="B79">
         <v>0.996</v>
       </c>
+      <c r="D79">
+        <f>AVERAGE(B59,B63,B67,B71,B75,B79)</f>
+        <v>0.98999999999999988</v>
+      </c>
       <c r="G79">
         <v>0.996</v>
       </c>
+      <c r="I79">
+        <f>AVERAGE(G59,G63,G67,G71,G75,G79)</f>
+        <v>0.9903333333333334</v>
+      </c>
       <c r="L79">
         <v>0.98899999999999999</v>
       </c>
+      <c r="N79">
+        <f>AVERAGE(L59,L63,L67,L71,L75,L79)</f>
+        <v>0.99266666666666659</v>
+      </c>
       <c r="Q79">
         <v>0.99399999999999999</v>
       </c>
+      <c r="S79">
+        <f>AVERAGE(Q59,Q63,Q67,Q71,Q75,Q79)</f>
+        <v>0.99133333333333329</v>
+      </c>
       <c r="V79">
         <v>0.98699999999999999</v>
       </c>
       <c r="AA79">
         <v>0.96399999999999997</v>
       </c>
-    </row>
-    <row r="80" spans="2:27">
+      <c r="AC79">
+        <f>AVERAGE(AA59,AA63,AA67,AA71,AA75,AA79)</f>
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29">
       <c r="B80">
         <v>0.90600000000000003</v>
       </c>
+      <c r="D80">
+        <f>AVERAGE(B60,B64,B68,B72,B76,B80)</f>
+        <v>0.88916666666666666</v>
+      </c>
       <c r="G80">
         <v>0.90700000000000003</v>
       </c>
+      <c r="I80">
+        <f>AVERAGE(G60,G64,G68,G72,G76,G80)</f>
+        <v>0.9</v>
+      </c>
       <c r="L80">
         <v>0.90400000000000003</v>
       </c>
+      <c r="N80">
+        <f>AVERAGE(L60,L64,L68,L72,L76,L80)</f>
+        <v>0.90433333333333332</v>
+      </c>
       <c r="Q80">
         <v>0.91</v>
       </c>
+      <c r="S80">
+        <f>AVERAGE(Q60,Q64,Q68,Q72,Q76,Q80)</f>
+        <v>0.91166666666666674</v>
+      </c>
       <c r="V80">
         <v>0.88700000000000001</v>
       </c>
       <c r="AA80">
         <v>0.94599999999999995</v>
+      </c>
+      <c r="AC80">
+        <f>AVERAGE(AA60,AA64,AA68,AA72,AA76,AA80)</f>
+        <v>0.9418333333333333</v>
       </c>
     </row>
     <row r="83" spans="22:22">
@@ -1872,29 +1912,38 @@
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="195" spans="22:22">
+    <row r="195" spans="22:24">
       <c r="V195">
         <v>0.996</v>
       </c>
     </row>
-    <row r="196" spans="22:22">
+    <row r="196" spans="22:24">
       <c r="V196">
         <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="199" spans="22:22">
+    <row r="199" spans="22:24">
       <c r="V199">
         <v>0.998</v>
       </c>
-    </row>
-    <row r="200" spans="22:22">
+      <c r="X199">
+        <f>AVERAGE(V179,V183,V187,V191,V195,V199)</f>
+        <v>0.99666666666666659</v>
+      </c>
+    </row>
+    <row r="200" spans="22:24">
       <c r="V200">
         <v>0.90600000000000003</v>
+      </c>
+      <c r="X200">
+        <f>AVERAGE(V180,V184,V188,V192,V196,V200)</f>
+        <v>0.90583333333333327</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>